--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/opslaglocatie/opslaglocatie.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/opslaglocatie/opslaglocatie.xlsx
@@ -468,7 +468,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.1</v>
       </c>
       <c r="D3" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
@@ -497,7 +497,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.2</v>
       </c>
       <c r="D4" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
@@ -526,7 +526,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>3</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.3</v>
       </c>
       <c r="D5" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>

--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/opslaglocatie/opslaglocatie.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/opslaglocatie/opslaglocatie.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,201 +413,190 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
       <c r="F1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>note</v>
+      </c>
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
-        <v>notation</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/opslaglocatie/opslaglocaties</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/geotechniek</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.opslaglocatie.opslaglocaties</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.geotechniek</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>Tijdelijke opslaglocatie voor geologische stalen bij Afdeling Geotechniek (Departement Mobiliteit en Openbare Werken) te Zwijnaarde.</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/1|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/2|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/3|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/4</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van opslaglocaties.</v>
+        <v>Geotechniek</v>
       </c>
       <c r="G2" t="str">
-        <v>null</v>
+        <v>Tijdelijke opslaglocatie voor geologische stalen bij Afdeling Geotechniek (Departement Mobiliteit en Openbare Werken) te Zwijnaarde.</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>Afdeling Geotechniek</v>
       </c>
       <c r="I2" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+      </c>
+      <c r="J2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/1</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/geotheek</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.1</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.geotheek</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>Opslaglocatie voor geologische stalen van het Departement Omgeving in het Depot van de Vlaamse overheid te Vilvoorde.</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
       </c>
       <c r="F3" t="str">
+        <v>Geotheek</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Opslaglocatie voor geologische stalen van het Departement Omgeving in het Depot van de Vlaamse overheid te Vilvoorde.</v>
+      </c>
+      <c r="H3" t="str">
         <v>Geotheek Vilvoorde</v>
       </c>
-      <c r="G3" t="str">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
-      </c>
       <c r="I3" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+      </c>
+      <c r="J3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/2</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/han</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.han</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>De grotten van Han (Han-sur-Lesse)</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
       </c>
       <c r="F4" t="str">
-        <v>Afdeling Geotechniek (Zwijnaarde)</v>
+        <v>Han</v>
       </c>
       <c r="G4" t="str">
-        <v>2</v>
+        <v>De grotten van Han (Han-sur-Lesse)</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>De grotten van Han</v>
       </c>
       <c r="I4" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+      </c>
+      <c r="J4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/3</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/steenkoolmijnen</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.3</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.steenkoolmijnen</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>Ondergrondse steenkoolmijnen in Limburg.</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
       </c>
       <c r="F5" t="str">
-        <v>steenkoolmijnen in Limburg</v>
+        <v>Steenkoolmijnen</v>
       </c>
       <c r="G5" t="str">
-        <v>3</v>
+        <v>Ondergrondse steenkoolmijnen in Limburg.</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>Steenkoolmijnen in Limburg</v>
       </c>
       <c r="I5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+      </c>
+      <c r="J5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/4</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.opslaglocatie.4</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.opslaglocatie</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>null</v>
       </c>
       <c r="E6" t="str">
         <v>null</v>
       </c>
       <c r="F6" t="str">
-        <v>De grotten van Han</v>
+        <v>null</v>
       </c>
       <c r="G6" t="str">
-        <v>4</v>
+        <v>null</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
+        <v>Codelijst opslaglocaties</v>
       </c>
       <c r="I6" t="str">
         <v>null</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/opslaglocatie</v>
-      </c>
-      <c r="B7" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.opslaglocatie</v>
-      </c>
-      <c r="D7" t="str">
-        <v>null</v>
-      </c>
-      <c r="E7" t="str">
-        <v>null</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Lijst van opslaglocaties</v>
-      </c>
-      <c r="G7" t="str">
-        <v>null</v>
-      </c>
-      <c r="H7" t="str">
-        <v>null</v>
-      </c>
-      <c r="I7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/1|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/2|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/3|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/4</v>
+      <c r="J6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/geotechniek|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/geotheek|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/han|https://data.bodemenondergrond.vlaanderen.be/id/concept/opslaglocatie/steenkoolmijnen</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>